--- a/03_テスト/テスト計画書.xlsx
+++ b/03_テスト/テスト計画書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\game\03_テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A5D49-A930-4200-8E29-B1DCA3A4A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4634C5-DD8B-479B-937B-6C3399869548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂利敵" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="68">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -131,9 +131,6 @@
     <t>設定画面にて[×]ボタン押下</t>
   </si>
   <si>
-    <t>セーブ画面にて[LOAD]ボタン押下</t>
-  </si>
-  <si>
     <t>セーブ画面にて[×]ボタン押下</t>
   </si>
   <si>
@@ -220,10 +217,6 @@
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0006</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -537,6 +530,89 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>実施不可</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0006: 試験実施により改善</t>
+    <rPh sb="6" eb="8">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施状況</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01_画面遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02_セーブ機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_ダンジョン操作</t>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ画面にて[LOAD]ボタン押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ画面にて[HOME]ボタン押下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面に遷移すること</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -545,7 +621,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +652,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -597,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -657,19 +740,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+    <border diagonalDown="1">
+      <left style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -679,14 +753,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,21 +802,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -776,6 +900,40 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -789,6 +947,81 @@
       <fill>
         <patternFill>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1095,174 +1328,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B16068E-82EC-42B2-847D-A1B44876547E}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:5">
       <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="16" t="s">
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="19">
+        <v>45815</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="21">
-        <v>45815</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="20"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="20"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="19">
+        <v>45816</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="18"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="20"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="18"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="20"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="18"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="20"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="18"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="20"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="18"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="20"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="18"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="20"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="18"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="20"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="18"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="20"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="18"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="20"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="18"/>
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="20"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="18"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="20"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="18"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="20"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="18"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1272,28 +1462,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D690E3-0340-4815-9FCE-6FD849F36BA3}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:5">
       <c r="B2" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:5">
       <c r="B3" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="25">
+        <f ca="1">INDIRECT("'"&amp;C5&amp;"'!E2")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" ref="D6:E6" ca="1" si="0">INDIRECT("'"&amp;D5&amp;"'!E2")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1303,11 +1525,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F49"/>
+  <dimension ref="B1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1324,16 +1546,21 @@
       <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="2:6">
       <c r="C2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E2" s="22">
+        <f>(COUNTIF($E$5:$E$50,"OK")+COUNTIF($E$5:$E$50,"NG")+COUNTIF($E$5:$E$50,"実施不可"))/MAX(B5:B50)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="2:6">
       <c r="E3" s="1"/>
@@ -1357,32 +1584,32 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="5">
-        <f>ROW()-4</f>
+        <f>IF(C5="","",ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" ht="37.5">
       <c r="B6" s="5">
-        <f t="shared" ref="B6:B49" si="0">ROW()-4</f>
+        <f t="shared" ref="B6:B50" si="0">IF(C6="","",ROW()-4)</f>
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="9"/>
@@ -1396,9 +1623,9 @@
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="9"/>
@@ -1412,9 +1639,9 @@
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="8"/>
@@ -1428,9 +1655,9 @@
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="9"/>
@@ -1445,9 +1672,9 @@
         <v>No3の手順実施後、設定画面にて[BACK]ボタン押下</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="9"/>
@@ -1462,9 +1689,9 @@
         <v>No3の手順実施後、設定画面にて[OK]ボタン押下</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="8"/>
@@ -1478,9 +1705,9 @@
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="8"/>
@@ -1495,9 +1722,9 @@
         <v>No2の手順実施後、セーブ画面にて[BACK]ボタン押下</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="9"/>
@@ -1508,12 +1735,12 @@
         <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="8"/>
@@ -1524,44 +1751,44 @@
         <v>11</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" ht="37.5">
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" ht="37.5">
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="8"/>
@@ -1572,12 +1799,12 @@
         <v>14</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="8"/>
@@ -1588,12 +1815,12 @@
         <v>15</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="8"/>
@@ -1604,29 +1831,28 @@
         <v>16</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="2:6" ht="37.5">
+    <row r="21" spans="2:6">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="13" t="str">
-        <f>"No"&amp;B17&amp;"の手順実施後、設定画面にて[BACK]ボタン押下"</f>
-        <v>No13の手順実施後、設定画面にて[BACK]ボタン押下</v>
+      <c r="C21" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="8"/>
@@ -1637,13 +1863,13 @@
         <v>18</v>
       </c>
       <c r="C22" s="13" t="str">
-        <f>"No"&amp;B17&amp;"の手順実施後、設定画面にて[OK]ボタン押下"</f>
-        <v>No13の手順実施後、設定画面にて[OK]ボタン押下</v>
+        <f>"No"&amp;B18&amp;"の手順実施後、設定画面にて[BACK]ボタン押下"</f>
+        <v>No14の手順実施後、設定画面にて[BACK]ボタン押下</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="8"/>
@@ -1654,366 +1880,371 @@
         <v>19</v>
       </c>
       <c r="C23" s="13" t="str">
-        <f>"No"&amp;B16&amp;"の手順実施後、セーブ画面にて[BACK]ボタン押下"</f>
-        <v>No12の手順実施後、セーブ画面にて[BACK]ボタン押下</v>
+        <f>"No"&amp;B18&amp;"の手順実施後、設定画面にて[OK]ボタン押下"</f>
+        <v>No14の手順実施後、設定画面にて[OK]ボタン押下</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" ht="37.5">
       <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="13" t="str">
+        <f>"No"&amp;B17&amp;"の手順実施後、セーブ画面にて[BACK]ボタン押下"</f>
+        <v>No13の手順実施後、セーブ画面にて[BACK]ボタン押下</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="B28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="B29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
+      <c r="B30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="B31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="B32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="B33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="B34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="B35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="B36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="5">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="B37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="5">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="B38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="B39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="B40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="5">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="B41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="5">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="B42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="5">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="B43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="5">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="B44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="5">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="B45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="5">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="B46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="5">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="B47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="B48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="5">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="B49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E5:E49">
-    <cfRule type="beginsWith" dxfId="8" priority="1" operator="beginsWith" text="取り下げ">
-      <formula>LEFT(E5,LEN("取り下げ"))="取り下げ"</formula>
+  <conditionalFormatting sqref="E5:E50">
+    <cfRule type="beginsWith" dxfId="17" priority="1" operator="beginsWith" text="実施不可">
+      <formula>LEFT(E5,LEN("実施不可"))="実施不可"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",E5)))</formula>
+    <cfRule type="beginsWith" dxfId="16" priority="2" operator="beginsWith" text="未着手">
+      <formula>LEFT(E5,LEN("未着手"))="未着手"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="15" priority="3" operator="beginsWith" text="NG">
+      <formula>LEFT(E5,LEN("NG"))="NG"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="14" priority="5" operator="beginsWith" text="OK">
+      <formula>LEFT(E5,LEN("OK"))="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="beginsWith" priority="2" operator="beginsWith" id="{6EC3DEBB-2116-443C-8457-58E4E9E387C3}">
-            <xm:f>LEFT(E5,LEN("対応中"))="対応中"</xm:f>
-            <xm:f>"対応中"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E5:E49</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B2E0D11-5ADC-424A-BB3F-1592639A7938}">
           <x14:formula1>
-            <xm:f>config!$B$3:$B$5</xm:f>
+            <xm:f>config!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E49</xm:sqref>
+          <xm:sqref>E5:E50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2027,7 +2258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2042,18 +2273,23 @@
         <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="2:6">
       <c r="C2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E2" s="22">
+        <f>(COUNTIF($E$5:$E$49,"OK")+COUNTIF($E$5:$E$49,"NG")+COUNTIF($E$5:$E$49,"実施不可"))/MAX(B5:B49)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="2:6">
       <c r="E3" s="1"/>
@@ -2077,23 +2313,23 @@
     </row>
     <row r="5" spans="2:6" ht="150">
       <c r="B5" s="5">
-        <f>ROW()-4</f>
+        <f>IF(C5="","",ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" ht="37.5">
       <c r="B6" s="5">
-        <f t="shared" ref="B6:B49" si="0">ROW()-4</f>
+        <f t="shared" ref="B6:B49" si="0">IF(C6="","",ROW()-4)</f>
         <v>2</v>
       </c>
       <c r="C6" s="13" t="str">
@@ -2101,9 +2337,9 @@
         <v>No1の手順実施後、セーブスロット1の[SAVE]ボタン押下</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="9"/>
@@ -2117,10 +2353,10 @@
         <f>"No"&amp;B6&amp;"の手順実施後、セーブスロット1の[DELETE]ボタン押下"</f>
         <v>No2の手順実施後、セーブスロット1の[DELETE]ボタン押下</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="9"/>
@@ -2134,10 +2370,12 @@
         <f>"No"&amp;B6&amp;"の手順実施後、セーブスロット1の[LOAD]ボタン押下"</f>
         <v>No2の手順実施後、セーブスロット1の[LOAD]ボタン押下</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7"/>
+      <c r="D8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" ht="37.5">
@@ -2150,9 +2388,9 @@
         <v>No1の手順実施後、セーブスロット2の[SAVE]ボタン押下</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="8"/>
@@ -2166,10 +2404,10 @@
         <f>"No"&amp;B9&amp;"の手順実施後、セーブスロット2の[DELETE]ボタン押下"</f>
         <v>No5の手順実施後、セーブスロット2の[DELETE]ボタン押下</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="9"/>
@@ -2183,10 +2421,12 @@
         <f>"No"&amp;B9&amp;"の手順実施後、セーブスロット2の[LOAD]ボタン押下"</f>
         <v>No5の手順実施後、セーブスロット2の[LOAD]ボタン押下</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="7"/>
+      <c r="D11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" ht="37.5">
@@ -2199,9 +2439,9 @@
         <v>No1の手順実施後、セーブスロット3の[SAVE]ボタン押下</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="9"/>
@@ -2215,10 +2455,10 @@
         <f>"No"&amp;B12&amp;"の手順実施後、セーブスロット3の[DELETE]ボタン押下"</f>
         <v>No8の手順実施後、セーブスロット3の[DELETE]ボタン押下</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="8"/>
@@ -2232,430 +2472,430 @@
         <f>"No"&amp;B12&amp;"の手順実施後、セーブスロット3の[LOAD]ボタン押下"</f>
         <v>No8の手順実施後、セーブスロット3の[LOAD]ボタン押下</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="5">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="5">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="5">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="B28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="B29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
+      <c r="B30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="B31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="B32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="B33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="B34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="B35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="B36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="5">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="B37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="5">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="B38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="B39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="B40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="5">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="B41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="5">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="B42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="5">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="B43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="5">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="B44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="5">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="B45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="5">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="B46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="5">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="B47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="B48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="5">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="B49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="8"/>
@@ -2663,38 +2903,26 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E5:E49">
-    <cfRule type="beginsWith" dxfId="5" priority="1" operator="beginsWith" text="取り下げ">
-      <formula>LEFT(E5,LEN("取り下げ"))="取り下げ"</formula>
+    <cfRule type="beginsWith" dxfId="10" priority="1" operator="beginsWith" text="実施不可">
+      <formula>LEFT(E5,LEN("実施不可"))="実施不可"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",E5)))</formula>
+    <cfRule type="beginsWith" dxfId="9" priority="2" operator="beginsWith" text="未着手">
+      <formula>LEFT(E5,LEN("未着手"))="未着手"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="3" operator="beginsWith" text="NG">
+      <formula>LEFT(E5,LEN("NG"))="NG"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="7" priority="4" operator="beginsWith" text="OK">
+      <formula>LEFT(E5,LEN("OK"))="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="beginsWith" priority="2" operator="beginsWith" id="{6048685B-0E7B-4485-9D6B-6C53D4722792}">
-            <xm:f>LEFT(E5,LEN("対応中"))="対応中"</xm:f>
-            <xm:f>"対応中"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E5:E49</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{87C21F81-1F58-4832-ADBD-90AAB7B9FCFB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58073ED5-0B23-428D-AB2A-45E0A8221044}">
           <x14:formula1>
-            <xm:f>config!$B$3:$B$5</xm:f>
+            <xm:f>config!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E49</xm:sqref>
         </x14:dataValidation>
@@ -2708,9 +2936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F24CC5C-A4E5-4C1A-B544-1345E2AFA1EE}">
   <dimension ref="B1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2725,18 +2953,23 @@
         <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="2:6">
       <c r="C2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E2" s="22">
+        <f>(COUNTIF($E$5:$E$49,"OK")+COUNTIF($E$5:$E$49,"NG")+COUNTIF($E$5:$E$49,"実施不可"))/MAX(B5:B49)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="2:6">
       <c r="E3" s="1"/>
@@ -2760,23 +2993,23 @@
     </row>
     <row r="5" spans="2:6" ht="93.75">
       <c r="B5" s="5">
-        <f>ROW()-4</f>
+        <f>IF(C5="","",ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5">
-        <f t="shared" ref="B6:B64" si="0">ROW()-4</f>
+        <f t="shared" ref="B6:B64" si="0">IF(C6="","",ROW()-4)</f>
         <v>2</v>
       </c>
       <c r="C6" s="13" t="str">
@@ -2784,9 +3017,9 @@
         <v>No1の手順実施後、Wキー押下</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="9"/>
@@ -2800,10 +3033,10 @@
         <f>"No"&amp;$B$5&amp;"の手順実施後、Aキー押下"</f>
         <v>No1の手順実施後、Aキー押下</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="9"/>
@@ -2817,10 +3050,10 @@
         <f>"No"&amp;$B$5&amp;"の手順実施後、Sキー押下"</f>
         <v>No1の手順実施後、Sキー押下</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="8"/>
@@ -2834,10 +3067,10 @@
         <f>"No"&amp;$B$5&amp;"の手順実施後、Dキー押下"</f>
         <v>No1の手順実施後、Dキー押下</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="9"/>
@@ -2852,9 +3085,9 @@
         <v>No1の手順実施後、左方向キー押下</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="9"/>
@@ -2869,9 +3102,9 @@
         <v>No1の手順実施後、左方向キー押下</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="8"/>
@@ -2886,9 +3119,9 @@
         <v>No1の手順実施後、後ろ方向キー押下</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="8"/>
@@ -2903,9 +3136,9 @@
         <v>No1の手順実施後、右方向キー押下</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="9"/>
@@ -2920,9 +3153,9 @@
         <v>No1の手順実施後、道路に向かってスペースキー押下</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="8"/>
@@ -2937,9 +3170,9 @@
         <v>No1の手順実施後、壁に向かってスペースキー押下</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="8"/>
@@ -2953,10 +3186,10 @@
         <f>"No"&amp;$B$5&amp;"の手順実施後、道路に向かってエンターキー押下"</f>
         <v>No1の手順実施後、道路に向かってエンターキー押下</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="8"/>
@@ -2971,9 +3204,9 @@
         <v>No1の手順実施後、壁に向かってエンターキー押下</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="8"/>
@@ -2984,12 +3217,12 @@
         <v>14</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="8"/>
@@ -3004,9 +3237,9 @@
         <v>No14の手順実施後、Wキー押下</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="8"/>
@@ -3021,9 +3254,9 @@
         <v>No14の手順実施後、Aキー押下</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="8"/>
@@ -3038,9 +3271,9 @@
         <v>No14の手順実施後、Sキー押下</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="8"/>
@@ -3055,9 +3288,9 @@
         <v>No14の手順実施後、Dキー押下</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="8"/>
@@ -3072,9 +3305,9 @@
         <v>No14の手順実施後、左方向キー押下</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="8"/>
@@ -3088,10 +3321,10 @@
         <f>"No"&amp;$B$18&amp;"の手順実施後、左方向キー押下"</f>
         <v>No14の手順実施後、左方向キー押下</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="8"/>
@@ -3105,10 +3338,10 @@
         <f>"No"&amp;$B$18&amp;"の手順実施後、後ろ方向キー押下"</f>
         <v>No14の手順実施後、後ろ方向キー押下</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="8"/>
@@ -3122,10 +3355,10 @@
         <f>"No"&amp;$B$18&amp;"の手順実施後、右方向キー押下"</f>
         <v>No14の手順実施後、右方向キー押下</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="8"/>
@@ -3139,10 +3372,10 @@
         <f>"No"&amp;$B$18&amp;"の手順実施後、道路に向かってスペースキー押下"</f>
         <v>No14の手順実施後、道路に向かってスペースキー押下</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="8"/>
@@ -3157,9 +3390,9 @@
         <v>No14の手順実施後、壁に向かってスペースキー押下</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="8"/>
@@ -3174,9 +3407,9 @@
         <v>No14の手順実施後、道路に向かってエンターキー押下</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="8"/>
@@ -3191,417 +3424,417 @@
         <v>No14の手順実施後、壁に向かってエンターキー押下</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="B31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="B32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="B33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="B34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="5">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="B35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="5">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="B36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="5">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="B37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="5">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="B38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="B39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="B40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="5">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="B41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="5">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="B42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="5">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="B43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="5">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="B44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="5">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="B45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="5">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="B46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="5">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="B47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="B48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="5">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="B49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="8"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="5">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="B50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="5">
-        <f t="shared" si="0"/>
-        <v>47</v>
+      <c r="B51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="5">
-        <f t="shared" si="0"/>
-        <v>48</v>
+      <c r="B52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="8"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="5">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="B53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="B54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="5">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="B55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="5">
-        <f t="shared" si="0"/>
-        <v>52</v>
+      <c r="B56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="5">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="B57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="5">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="B58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="5">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="B59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="5">
-        <f t="shared" si="0"/>
-        <v>56</v>
+      <c r="B60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="5">
-        <f t="shared" si="0"/>
-        <v>57</v>
+      <c r="B61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="5">
-        <f t="shared" si="0"/>
-        <v>58</v>
+      <c r="B62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="5">
-        <f t="shared" si="0"/>
-        <v>59</v>
+      <c r="B63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="8"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="5">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="B64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F64" s="8"/>
@@ -3609,38 +3842,26 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E5:E64">
-    <cfRule type="beginsWith" dxfId="2" priority="1" operator="beginsWith" text="取り下げ">
-      <formula>LEFT(E5,LEN("取り下げ"))="取り下げ"</formula>
+    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="実施不可">
+      <formula>LEFT(E5,LEN("実施不可"))="実施不可"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",E5)))</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="未着手">
+      <formula>LEFT(E5,LEN("未着手"))="未着手"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="NG">
+      <formula>LEFT(E5,LEN("NG"))="NG"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="OK">
+      <formula>LEFT(E5,LEN("OK"))="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="beginsWith" priority="2" operator="beginsWith" id="{001BEB41-89B9-4339-8D5F-EEE53BD238F8}">
-            <xm:f>LEFT(E5,LEN("対応中"))="対応中"</xm:f>
-            <xm:f>"対応中"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E5:E64</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D07BE1BA-D02C-442F-9499-B4AA818968E3}">
           <x14:formula1>
-            <xm:f>config!$B$3:$B$5</xm:f>
+            <xm:f>config!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E64</xm:sqref>
         </x14:dataValidation>
@@ -3652,10 +3873,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8CED23-4FA9-41C1-80CA-9430BBAA723F}">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3680,6 +3901,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
